--- a/data/trans_bre/IP12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP12-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,92</t>
+          <t>-5,89; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 9,62</t>
+          <t>-4,83; 10,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 16,56</t>
+          <t>0,24; 16,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 5,27</t>
+          <t>-13,64; 4,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,51; 172,88</t>
+          <t>-65,19; 159,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,15; 192,03</t>
+          <t>-46,53; 232,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 1461,26</t>
+          <t>-22,2; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,23; 105,33</t>
+          <t>-82,57; 89,02</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,22</t>
+          <t>-2,09; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,42</t>
+          <t>-4,44; 1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,13</t>
+          <t>-2,97; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,27</t>
+          <t>-3,6; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 62,2</t>
+          <t>-27,01; 60,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 18,96</t>
+          <t>-42,65; 20,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 36,65</t>
+          <t>-35,17; 39,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 37,53</t>
+          <t>-38,55; 40,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 2,47</t>
+          <t>-5,17; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 8,64</t>
+          <t>-2,22; 8,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 8,98</t>
+          <t>-0,42; 8,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 5,52</t>
+          <t>-4,67; 5,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,78; 64,11</t>
+          <t>-62,7; 62,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 230,4</t>
+          <t>-27,36; 189,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 263,36</t>
+          <t>-11,26; 230,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 124,22</t>
+          <t>-48,39; 122,68</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,22</t>
+          <t>-2,29; 2,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,54</t>
+          <t>-2,31; 2,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,77</t>
+          <t>-0,66; 3,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 1,74</t>
+          <t>-2,95; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 39,95</t>
+          <t>-30,76; 40,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 35,48</t>
+          <t>-23,83; 36,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 69,38</t>
+          <t>-9,09; 68,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 26,95</t>
+          <t>-32,24; 31,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP12-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>239,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,91%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 9,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 15,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,46; 3,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,36; 220,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,93; 221,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,18; 1441,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,95; 74,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>-15,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>239,65%</t>
+          <t>-7,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,1%</t>
+          <t>-7,03%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,75</t>
+          <t>-2,36; 3,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 10,21</t>
+          <t>-4,61; 1,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 16,04</t>
+          <t>-3,21; 2,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 4,79</t>
+          <t>-3,6; 2,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,19; 159,27</t>
+          <t>-28,95; 58,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 232,54</t>
+          <t>-41,83; 21,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,2; —</t>
+          <t>-37,35; 35,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,57; 89,02</t>
+          <t>-38,85; 41,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>-20,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,39%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,64%</t>
+          <t>83,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,45</t>
+          <t>-5,52; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,48</t>
+          <t>-1,42; 8,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,36</t>
+          <t>0,08; 9,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,44</t>
+          <t>-5,03; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 60,72</t>
+          <t>-63,04; 69,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 20,31</t>
+          <t>-20,05; 184,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,17; 39,59</t>
+          <t>-8,78; 239,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 40,82</t>
+          <t>-47,3; 112,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,75%</t>
+          <t>-1,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>83,91%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>-8,21%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 2,63</t>
+          <t>-1,95; 2,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,18</t>
+          <t>-2,1; 2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 8,19</t>
+          <t>-0,75; 3,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,7</t>
+          <t>-3,04; 1,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,7; 62,3</t>
+          <t>-26,26; 41,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 189,06</t>
+          <t>-21,88; 34,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 230,98</t>
+          <t>-10,04; 66,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 122,68</t>
+          <t>-33,86; 29,71</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,75%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,65%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-6,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 2,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 2,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,82</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 2,02</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-30,76; 40,59</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-23,83; 36,68</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 68,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 31,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
